--- a/SQL/car_sales_database.xlsx
+++ b/SQL/car_sales_database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="0" windowWidth="17380" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sales_table" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="82">
   <si>
     <t>Toyota</t>
   </si>
@@ -417,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -448,19 +448,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -568,7 +555,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -580,8 +567,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -591,12 +576,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,2340 +1030,2340 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20">
-      <c r="A2" s="12">
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
         <v>54858</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>36</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>237906</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>21222</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="E2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10">
         <v>492</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20">
-      <c r="A3" s="12">
+    <row r="3" spans="1:7">
+      <c r="A3" s="10">
         <v>43161</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>20</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>967016</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>19140</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10">
         <v>215</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20">
-      <c r="A4" s="12">
+    <row r="4" spans="1:7">
+      <c r="A4" s="10">
         <v>40112</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>46</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>819010</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>14720</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="E4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10">
         <v>862</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20">
-      <c r="A5" s="12">
+    <row r="5" spans="1:7">
+      <c r="A5" s="10">
         <v>92495</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>31</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>633030</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>19010</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10">
         <v>803</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20">
-      <c r="A6" s="12">
+    <row r="6" spans="1:7">
+      <c r="A6" s="10">
         <v>78000</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>51</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>341877</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>22022</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10">
         <v>862</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20">
-      <c r="A7" s="12">
+    <row r="7" spans="1:7">
+      <c r="A7" s="10">
         <v>13154</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>75</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>720210</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>21409</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10">
         <v>492</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20">
-      <c r="A8" s="12">
+    <row r="8" spans="1:7">
+      <c r="A8" s="10">
         <v>36535</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>31</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>908558</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>19894</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10">
         <v>862</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20">
-      <c r="A9" s="12">
+    <row r="9" spans="1:7">
+      <c r="A9" s="10">
         <v>22813</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>46</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>705508</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>12960</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="10">
         <v>225</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20">
-      <c r="A10" s="12">
+    <row r="10" spans="1:7">
+      <c r="A10" s="10">
         <v>56245</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>36</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>248621</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>25938</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="E10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="10">
         <v>276</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20">
-      <c r="A11" s="12">
+    <row r="11" spans="1:7">
+      <c r="A11" s="10">
         <v>88118</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>51</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>341344</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>19844</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10">
         <v>492</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20">
-      <c r="A12" s="12">
+    <row r="12" spans="1:7">
+      <c r="A12" s="10">
         <v>84469</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>31</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>733566</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>21441</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10">
         <v>215</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20">
-      <c r="A13" s="12">
+    <row r="13" spans="1:7">
+      <c r="A13" s="10">
         <v>37412</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>31</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>750195</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>17462</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="10">
         <v>276</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20">
-      <c r="A14" s="12">
+    <row r="14" spans="1:7">
+      <c r="A14" s="10">
         <v>68513</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>31</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>461723</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>17020</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="E14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="10">
         <v>803</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20">
-      <c r="A15" s="12">
+    <row r="15" spans="1:7">
+      <c r="A15" s="10">
         <v>74380</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>20</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>468665</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>18040</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="E15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="10">
         <v>215</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20">
-      <c r="A16" s="12">
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
         <v>24047</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>75</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>556188</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>18671</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="E16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="10">
         <v>862</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20">
-      <c r="A17" s="12">
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
         <v>40603</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>51</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>241759</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>22506</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="E17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="10">
         <v>862</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20">
-      <c r="A18" s="12">
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
         <v>69883</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>161369</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>20460</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10">
         <v>803</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20">
-      <c r="A19" s="12">
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
         <v>43338</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>46</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>731692</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>13440</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="10">
         <v>225</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20">
-      <c r="A20" s="12">
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
         <v>39727</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>51</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>656750</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>18634</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10">
         <v>492</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20">
-      <c r="A21" s="12">
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
         <v>21022</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>22</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>619020</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>17312</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="12">
+      <c r="E21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="10">
         <v>862</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20">
-      <c r="A22" s="12">
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
         <v>18303</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>36</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>413891</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>23318</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="E22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="10">
         <v>492</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20">
-      <c r="A23" s="12">
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
         <v>28176</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>20</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>965672</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>21780</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="E23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="10">
         <v>813</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20">
-      <c r="A24" s="12">
+    <row r="24" spans="1:7">
+      <c r="A24" s="10">
         <v>62604</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>75</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>217720</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>19418</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="E24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="10">
         <v>862</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20">
-      <c r="A25" s="12">
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
         <v>83930</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>22</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <v>946265</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>17756</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="12">
+      <c r="E25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="10">
         <v>862</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20">
-      <c r="A26" s="12">
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
         <v>87626</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>31</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>140795</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>21441</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="12">
+      <c r="E26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="10">
         <v>215</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20">
-      <c r="A27" s="12">
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
         <v>10682</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>31</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>145479</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>17905</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="12">
+      <c r="E27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="10">
         <v>147</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20">
-      <c r="A28" s="12">
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
         <v>23444</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>20</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>961650</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <v>16720</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="12">
+      <c r="E28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="10">
         <v>276</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20">
-      <c r="A29" s="12">
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
         <v>87998</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>31</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>457742</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>20778</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="E29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="10">
         <v>680</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20">
-      <c r="A30" s="12">
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
         <v>95912</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>75</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>978159</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <v>19667</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="12">
+      <c r="E30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="10">
         <v>813</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20">
-      <c r="A31" s="12">
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
         <v>74410</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>20</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>474218</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <v>19360</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="12">
+      <c r="E31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="10">
         <v>276</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20">
-      <c r="A32" s="12">
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
         <v>79524</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>22</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>184620</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <v>17977</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="12">
+      <c r="E32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="10">
         <v>949</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20">
-      <c r="A33" s="12">
+    <row r="33" spans="1:7">
+      <c r="A33" s="10">
         <v>50780</v>
       </c>
-      <c r="B33" s="12">
-        <v>19</v>
-      </c>
-      <c r="C33" s="12">
+      <c r="B33" s="10">
+        <v>19</v>
+      </c>
+      <c r="C33" s="10">
         <v>665730</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>17462</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="E33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="10">
         <v>949</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20">
-      <c r="A34" s="12">
+    <row r="34" spans="1:7">
+      <c r="A34" s="10">
         <v>82630</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>46</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>618295</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <v>15040</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="12">
+      <c r="E34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="10">
         <v>215</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20">
-      <c r="A35" s="12">
+    <row r="35" spans="1:7">
+      <c r="A35" s="10">
         <v>38626</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>31</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>418694</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <v>20115</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="12">
+      <c r="E35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="10">
         <v>225</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="20">
-      <c r="A36" s="12">
+    <row r="36" spans="1:7">
+      <c r="A36" s="10">
         <v>70434</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <v>46</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>944843</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <v>13600</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="12">
+      <c r="E36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="10">
         <v>949</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20">
-      <c r="A37" s="12">
+    <row r="37" spans="1:7">
+      <c r="A37" s="10">
         <v>12140</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <v>75</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>257329</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <v>19418</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="12">
+      <c r="E37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="10">
         <v>803</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="20">
-      <c r="A38" s="12">
+    <row r="38" spans="1:7">
+      <c r="A38" s="10">
         <v>97589</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="10">
         <v>22</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>510787</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="9">
         <v>18199</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="12">
+      <c r="E38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="10">
         <v>225</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20">
-      <c r="A39" s="12">
+    <row r="39" spans="1:7">
+      <c r="A39" s="10">
         <v>83753</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>36</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <v>573367</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <v>20960</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="12">
+      <c r="E39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="10">
         <v>680</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20">
-      <c r="A40" s="12">
+    <row r="40" spans="1:7">
+      <c r="A40" s="10">
         <v>42464</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>22</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>821278</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <v>17534</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="12">
+      <c r="E40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="10">
         <v>862</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20">
-      <c r="A41" s="12">
+    <row r="41" spans="1:7">
+      <c r="A41" s="10">
         <v>46731</v>
       </c>
-      <c r="B41" s="12">
-        <v>19</v>
-      </c>
-      <c r="C41" s="12">
+      <c r="B41" s="10">
+        <v>19</v>
+      </c>
+      <c r="C41" s="10">
         <v>337268</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>18008</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="12">
+      <c r="E41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="10">
         <v>276</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20">
-      <c r="A42" s="12">
+    <row r="42" spans="1:7">
+      <c r="A42" s="10">
         <v>11775</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>51</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <v>987392</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <v>23958</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="12">
+      <c r="E42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="10">
         <v>225</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="20">
-      <c r="A43" s="12">
+    <row r="43" spans="1:7">
+      <c r="A43" s="10">
         <v>98512</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>36</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>321846</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <v>23056</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="12">
+      <c r="E43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="10">
         <v>680</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20">
-      <c r="A44" s="12">
+    <row r="44" spans="1:7">
+      <c r="A44" s="10">
         <v>47952</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="10">
         <v>36</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="10">
         <v>526172</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <v>22008</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="12">
+      <c r="E44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="10">
         <v>813</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="20">
-      <c r="A45" s="12">
+    <row r="45" spans="1:7">
+      <c r="A45" s="10">
         <v>65735</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="10">
         <v>22</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="10">
         <v>718125</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <v>16646</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="12">
+      <c r="E45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="10">
         <v>147</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20">
-      <c r="A46" s="12">
+    <row r="46" spans="1:7">
+      <c r="A46" s="10">
         <v>91723</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="10">
         <v>36</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="10">
         <v>490244</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>24628</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="12">
+      <c r="E46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="10">
         <v>215</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="20">
-      <c r="A47" s="12">
+    <row r="47" spans="1:7">
+      <c r="A47" s="10">
         <v>92680</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="10">
         <v>36</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="10">
         <v>903360</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <v>22270</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="12">
+      <c r="E47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="10">
         <v>803</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="20">
-      <c r="A48" s="12">
+    <row r="48" spans="1:7">
+      <c r="A48" s="10">
         <v>60017</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="10">
         <v>51</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="10">
         <v>789478</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <v>18150</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="12">
+      <c r="E48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="10">
         <v>680</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="20">
-      <c r="A49" s="12">
+    <row r="49" spans="1:7">
+      <c r="A49" s="10">
         <v>26310</v>
       </c>
-      <c r="B49" s="12">
-        <v>19</v>
-      </c>
-      <c r="C49" s="12">
+      <c r="B49" s="10">
+        <v>19</v>
+      </c>
+      <c r="C49" s="10">
         <v>233890</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <v>15097</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="12">
+      <c r="E49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="10">
         <v>813</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="20">
-      <c r="A50" s="12">
+    <row r="50" spans="1:7">
+      <c r="A50" s="10">
         <v>18127</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="10">
         <v>75</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="10">
         <v>449731</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="9">
         <v>19418</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="12">
+      <c r="E50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="10">
         <v>680</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="20">
-      <c r="A51" s="12">
+    <row r="51" spans="1:7">
+      <c r="A51" s="10">
         <v>88487</v>
       </c>
-      <c r="B51" s="12">
-        <v>19</v>
-      </c>
-      <c r="C51" s="12">
+      <c r="B51" s="10">
+        <v>19</v>
+      </c>
+      <c r="C51" s="10">
         <v>569312</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>14006</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="12">
+      <c r="E51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="10">
         <v>813</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="20">
-      <c r="A52" s="12">
+    <row r="52" spans="1:7">
+      <c r="A52" s="10">
         <v>96450</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="10">
         <v>51</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="10">
         <v>708477</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="9">
         <v>20570</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="12">
+      <c r="E52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="10">
         <v>680</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="20">
-      <c r="A53" s="12">
+    <row r="53" spans="1:7">
+      <c r="A53" s="10">
         <v>35280</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="10">
         <v>46</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="10">
         <v>594199</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="9">
         <v>12800</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="12">
+      <c r="E53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="10">
         <v>813</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="20">
-      <c r="A54" s="12">
+    <row r="54" spans="1:7">
+      <c r="A54" s="10">
         <v>60794</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="10">
         <v>75</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="10">
         <v>425835</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="9">
         <v>21409</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="12">
+      <c r="E54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="10">
         <v>803</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="20">
-      <c r="A55" s="12">
+    <row r="55" spans="1:7">
+      <c r="A55" s="10">
         <v>97127</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>75</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="10">
         <v>397453</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="9">
         <v>22654</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="12">
+      <c r="E55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="10">
         <v>949</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="20">
-      <c r="A56" s="12">
+    <row r="56" spans="1:7">
+      <c r="A56" s="10">
         <v>62326</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="10">
         <v>36</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="10">
         <v>962032</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="9">
         <v>21484</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="12">
+      <c r="E56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="10">
         <v>147</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="20">
-      <c r="A57" s="12">
+    <row r="57" spans="1:7">
+      <c r="A57" s="10">
         <v>59842</v>
       </c>
-      <c r="B57" s="12">
-        <v>19</v>
-      </c>
-      <c r="C57" s="12">
+      <c r="B57" s="10">
+        <v>19</v>
+      </c>
+      <c r="C57" s="10">
         <v>541659</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="9">
         <v>16371</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="12">
+      <c r="E57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="10">
         <v>215</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="20">
-      <c r="A58" s="12">
+    <row r="58" spans="1:7">
+      <c r="A58" s="10">
         <v>30338</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="10">
         <v>22</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="10">
         <v>210351</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="9">
         <v>17090</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="12">
+      <c r="E58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="10">
         <v>492</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="20">
-      <c r="A59" s="12">
+    <row r="59" spans="1:7">
+      <c r="A59" s="10">
         <v>40705</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="10">
         <v>36</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="10">
         <v>342716</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="9">
         <v>24366</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="12">
+      <c r="E59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="10">
         <v>225</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="20">
-      <c r="A60" s="12">
+    <row r="60" spans="1:7">
+      <c r="A60" s="10">
         <v>91458</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="10">
         <v>51</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="10">
         <v>878519</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="9">
         <v>18876</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="12">
+      <c r="E60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="10">
         <v>225</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="20">
-      <c r="A61" s="12">
+    <row r="61" spans="1:7">
+      <c r="A61" s="10">
         <v>82151</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="10">
         <v>75</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="10">
         <v>494275</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="9">
         <v>21409</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="12">
+      <c r="E61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="10">
         <v>215</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G61" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="20">
-      <c r="A62" s="12">
+    <row r="62" spans="1:7">
+      <c r="A62" s="10">
         <v>92271</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="10">
         <v>31</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="10">
         <v>230891</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="9">
         <v>20557</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="12">
+      <c r="E62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="10">
         <v>492</v>
       </c>
-      <c r="G62" s="12" t="s">
+      <c r="G62" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="20">
-      <c r="A63" s="12">
+    <row r="63" spans="1:7">
+      <c r="A63" s="10">
         <v>48701</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>75</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="10">
         <v>914253</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="9">
         <v>22405</v>
       </c>
-      <c r="E63" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="12">
+      <c r="E63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="10">
         <v>225</v>
       </c>
-      <c r="G63" s="12" t="s">
+      <c r="G63" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="20">
-      <c r="A64" s="12">
+    <row r="64" spans="1:7">
+      <c r="A64" s="10">
         <v>89535</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="10">
         <v>20</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="10">
         <v>657860</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="9">
         <v>21780</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="12">
+      <c r="E64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="10">
         <v>215</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="G64" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="20">
-      <c r="A65" s="12">
+    <row r="65" spans="1:7">
+      <c r="A65" s="10">
         <v>57313</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="10">
         <v>46</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="10">
         <v>887190</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="9">
         <v>15360</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="12">
+      <c r="E65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="10">
         <v>276</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="20">
-      <c r="A66" s="12">
+    <row r="66" spans="1:7">
+      <c r="A66" s="10">
         <v>98201</v>
       </c>
-      <c r="B66" s="12">
-        <v>19</v>
-      </c>
-      <c r="C66" s="12">
+      <c r="B66" s="10">
+        <v>19</v>
+      </c>
+      <c r="C66" s="10">
         <v>697575</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="9">
         <v>13642</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="12">
+      <c r="E66" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="10">
         <v>680</v>
       </c>
-      <c r="G66" s="12" t="s">
+      <c r="G66" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="20">
-      <c r="A67" s="12">
+    <row r="67" spans="1:7">
+      <c r="A67" s="10">
         <v>39151</v>
       </c>
-      <c r="B67" s="12">
-        <v>19</v>
-      </c>
-      <c r="C67" s="12">
+      <c r="B67" s="10">
+        <v>19</v>
+      </c>
+      <c r="C67" s="10">
         <v>139484</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="9">
         <v>16371</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="12">
+      <c r="E67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="10">
         <v>276</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="G67" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="20">
-      <c r="A68" s="12">
+    <row r="68" spans="1:7">
+      <c r="A68" s="10">
         <v>30046</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="10">
         <v>46</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="10">
         <v>982483</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="9">
         <v>12640</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="12">
+      <c r="E68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="10">
         <v>803</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="G68" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="20">
-      <c r="A69" s="12">
+    <row r="69" spans="1:7">
+      <c r="A69" s="10">
         <v>95766</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="10">
         <v>51</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="10">
         <v>560802</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="9">
         <v>22506</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="12">
+      <c r="E69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="10">
         <v>680</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="20">
-      <c r="A70" s="12">
+    <row r="70" spans="1:7">
+      <c r="A70" s="10">
         <v>37050</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="10">
         <v>36</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="10">
         <v>513614</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="9">
         <v>25937</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="12">
+      <c r="E70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="10">
         <v>276</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="G70" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="20">
-      <c r="A71" s="12">
+    <row r="71" spans="1:7">
+      <c r="A71" s="10">
         <v>12881</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="10">
         <v>46</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="10">
         <v>628979</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="9">
         <v>14080</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="12">
+      <c r="E71" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="10">
         <v>813</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="20">
-      <c r="A72" s="12">
+    <row r="72" spans="1:7">
+      <c r="A72" s="10">
         <v>61014</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="10">
         <v>36</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="10">
         <v>253239</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="9">
         <v>20174</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="12">
+      <c r="E72" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="10">
         <v>680</v>
       </c>
-      <c r="G72" s="12" t="s">
+      <c r="G72" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="20">
-      <c r="A73" s="12">
+    <row r="73" spans="1:7">
+      <c r="A73" s="10">
         <v>18946</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="10">
         <v>20</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="10">
         <v>614301</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="9">
         <v>18480</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="12">
+      <c r="E73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="10">
         <v>225</v>
       </c>
-      <c r="G73" s="12" t="s">
+      <c r="G73" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="20">
-      <c r="A74" s="12">
+    <row r="74" spans="1:7">
+      <c r="A74" s="10">
         <v>75834</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="10">
         <v>51</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="10">
         <v>168495</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="9">
         <v>23474</v>
       </c>
-      <c r="E74" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="12">
+      <c r="E74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="10">
         <v>215</v>
       </c>
-      <c r="G74" s="12" t="s">
+      <c r="G74" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="20">
-      <c r="A75" s="12">
+    <row r="75" spans="1:7">
+      <c r="A75" s="10">
         <v>57366</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="10">
         <v>31</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="10">
         <v>699431</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="9">
         <v>19231</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="12">
+      <c r="E75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="10">
         <v>225</v>
       </c>
-      <c r="G75" s="12" t="s">
+      <c r="G75" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="20">
-      <c r="A76" s="12">
+    <row r="76" spans="1:7">
+      <c r="A76" s="10">
         <v>57711</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="10">
         <v>22</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="10">
         <v>528354</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="9">
         <v>18865</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="12">
+      <c r="E76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="10">
         <v>813</v>
       </c>
-      <c r="G76" s="12" t="s">
+      <c r="G76" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="20">
-      <c r="A77" s="12">
+    <row r="77" spans="1:7">
+      <c r="A77" s="10">
         <v>65870</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="10">
         <v>36</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="10">
         <v>751098</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="9">
         <v>24104</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="12">
+      <c r="E77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="10">
         <v>862</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="20">
-      <c r="A78" s="12">
+    <row r="78" spans="1:7">
+      <c r="A78" s="10">
         <v>22147</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="10">
         <v>36</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="10">
         <v>480153</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="9">
         <v>20436</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="12">
+      <c r="E78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="10">
         <v>492</v>
       </c>
-      <c r="G78" s="12" t="s">
+      <c r="G78" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="20">
-      <c r="A79" s="12">
+    <row r="79" spans="1:7">
+      <c r="A79" s="10">
         <v>99759</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="10">
         <v>51</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="10">
         <v>208677</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="9">
         <v>22990</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="12">
+      <c r="E79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="10">
         <v>492</v>
       </c>
-      <c r="G79" s="12" t="s">
+      <c r="G79" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="20">
-      <c r="A80" s="12">
+    <row r="80" spans="1:7">
+      <c r="A80" s="10">
         <v>64406</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="10">
         <v>20</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="10">
         <v>349494</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="9">
         <v>19580</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="12">
+      <c r="E80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="10">
         <v>147</v>
       </c>
-      <c r="G80" s="12" t="s">
+      <c r="G80" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="20">
-      <c r="A81" s="12">
+    <row r="81" spans="1:7">
+      <c r="A81" s="10">
         <v>55585</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="10">
         <v>22</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="10">
         <v>206310</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="9">
         <v>17756</v>
       </c>
-      <c r="E81" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="12">
+      <c r="E81" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="10">
         <v>949</v>
       </c>
-      <c r="G81" s="12" t="s">
+      <c r="G81" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="20">
-      <c r="A82" s="12">
+    <row r="82" spans="1:7">
+      <c r="A82" s="10">
         <v>24710</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="10">
         <v>75</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="10">
         <v>185223</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="9">
         <v>18920</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="12">
+      <c r="E82" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="10">
         <v>276</v>
       </c>
-      <c r="G82" s="12" t="s">
+      <c r="G82" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="20">
-      <c r="A83" s="12">
+    <row r="83" spans="1:7">
+      <c r="A83" s="10">
         <v>53831</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="10">
         <v>75</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="10">
         <v>656181</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="9">
         <v>24646</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="12">
+      <c r="E83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="10">
         <v>949</v>
       </c>
-      <c r="G83" s="12" t="s">
+      <c r="G83" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="20">
-      <c r="A84" s="12">
+    <row r="84" spans="1:7">
+      <c r="A84" s="10">
         <v>97494</v>
       </c>
-      <c r="B84" s="12">
-        <v>19</v>
-      </c>
-      <c r="C84" s="12">
+      <c r="B84" s="10">
+        <v>19</v>
+      </c>
+      <c r="C84" s="10">
         <v>393613</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="9">
         <v>14006</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="12">
+      <c r="E84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="10">
         <v>680</v>
       </c>
-      <c r="G84" s="12" t="s">
+      <c r="G84" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="20">
-      <c r="A85" s="12">
+    <row r="85" spans="1:7">
+      <c r="A85" s="10">
         <v>13004</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="10">
         <v>36</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="10">
         <v>488910</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="9">
         <v>24890</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="12">
+      <c r="E85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="10">
         <v>225</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="G85" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="20">
-      <c r="A86" s="12">
+    <row r="86" spans="1:7">
+      <c r="A86" s="10">
         <v>30779</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="10">
         <v>75</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="10">
         <v>846630</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="9">
         <v>23401</v>
       </c>
-      <c r="E86" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="12">
+      <c r="E86" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="10">
         <v>147</v>
       </c>
-      <c r="G86" s="12" t="s">
+      <c r="G86" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="20">
-      <c r="A87" s="12">
+    <row r="87" spans="1:7">
+      <c r="A87" s="10">
         <v>29708</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="10">
         <v>51</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="10">
         <v>534633</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="9">
         <v>20328</v>
       </c>
-      <c r="E87" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="12">
+      <c r="E87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="10">
         <v>276</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="G87" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="20">
-      <c r="A88" s="12">
+    <row r="88" spans="1:7">
+      <c r="A88" s="10">
         <v>14082</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="10">
         <v>46</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="10">
         <v>909110</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="9">
         <v>15200</v>
       </c>
-      <c r="E88" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="12">
+      <c r="E88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="10">
         <v>813</v>
       </c>
-      <c r="G88" s="12" t="s">
+      <c r="G88" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="20">
-      <c r="A89" s="12">
+    <row r="89" spans="1:7">
+      <c r="A89" s="10">
         <v>82119</v>
       </c>
-      <c r="B89" s="12">
-        <v>19</v>
-      </c>
-      <c r="C89" s="12">
+      <c r="B89" s="10">
+        <v>19</v>
+      </c>
+      <c r="C89" s="10">
         <v>628031</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="9">
         <v>16189</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="12">
+      <c r="E89" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="10">
         <v>492</v>
       </c>
-      <c r="G89" s="12" t="s">
+      <c r="G89" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="20">
-      <c r="A90" s="12">
+    <row r="90" spans="1:7">
+      <c r="A90" s="10">
         <v>31815</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="10">
         <v>46</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="10">
         <v>743097</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="9">
         <v>15040</v>
       </c>
-      <c r="E90" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="12">
+      <c r="E90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="10">
         <v>215</v>
       </c>
-      <c r="G90" s="12" t="s">
+      <c r="G90" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="20">
-      <c r="A91" s="12">
+    <row r="91" spans="1:7">
+      <c r="A91" s="10">
         <v>32345</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="10">
         <v>22</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="10">
         <v>476047</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="9">
         <v>20197</v>
       </c>
-      <c r="E91" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="12">
+      <c r="E91" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="10">
         <v>803</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G91" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="20">
-      <c r="A92" s="12">
+    <row r="92" spans="1:7">
+      <c r="A92" s="10">
         <v>63526</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="10">
         <v>51</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="10">
         <v>862765</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="9">
         <v>23232</v>
       </c>
-      <c r="E92" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="12">
+      <c r="E92" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="10">
         <v>225</v>
       </c>
-      <c r="G92" s="12" t="s">
+      <c r="G92" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="20">
-      <c r="A93" s="12">
+    <row r="93" spans="1:7">
+      <c r="A93" s="10">
         <v>20256</v>
       </c>
-      <c r="B93" s="12">
-        <v>19</v>
-      </c>
-      <c r="C93" s="12">
+      <c r="B93" s="10">
+        <v>19</v>
+      </c>
+      <c r="C93" s="10">
         <v>597655</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="9">
         <v>16734</v>
       </c>
-      <c r="E93" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="12">
+      <c r="E93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="10">
         <v>492</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="20">
-      <c r="A94" s="12">
+    <row r="94" spans="1:7">
+      <c r="A94" s="10">
         <v>15930</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="10">
         <v>36</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="10">
         <v>486534</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="9">
         <v>20960</v>
       </c>
-      <c r="E94" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="12">
+      <c r="E94" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="10">
         <v>949</v>
       </c>
-      <c r="G94" s="12" t="s">
+      <c r="G94" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="20">
-      <c r="A95" s="12">
+    <row r="95" spans="1:7">
+      <c r="A95" s="10">
         <v>68446</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="10">
         <v>75</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="10">
         <v>339830</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="9">
         <v>24148</v>
       </c>
-      <c r="E95" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="12">
+      <c r="E95" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="10">
         <v>215</v>
       </c>
-      <c r="G95" s="12" t="s">
+      <c r="G95" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="20">
-      <c r="A96" s="12">
+    <row r="96" spans="1:7">
+      <c r="A96" s="10">
         <v>68330</v>
       </c>
-      <c r="B96" s="12">
+      <c r="B96" s="10">
         <v>20</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="10">
         <v>283797</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="9">
         <v>19140</v>
       </c>
-      <c r="E96" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="12">
+      <c r="E96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="10">
         <v>215</v>
       </c>
-      <c r="G96" s="12" t="s">
+      <c r="G96" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="20">
-      <c r="A97" s="12">
+    <row r="97" spans="1:7">
+      <c r="A97" s="10">
         <v>85407</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="10">
         <v>22</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="10">
         <v>635204</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="9">
         <v>21751</v>
       </c>
-      <c r="E97" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="12">
+      <c r="E97" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="10">
         <v>949</v>
       </c>
-      <c r="G97" s="12" t="s">
+      <c r="G97" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="20">
-      <c r="A98" s="12">
+    <row r="98" spans="1:7">
+      <c r="A98" s="10">
         <v>42428</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="10">
         <v>75</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="10">
         <v>619016</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="9">
         <v>20413</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="12">
+      <c r="E98" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="10">
         <v>680</v>
       </c>
-      <c r="G98" s="12" t="s">
+      <c r="G98" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="20">
-      <c r="A99" s="12">
+    <row r="99" spans="1:7">
+      <c r="A99" s="10">
         <v>37620</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="10">
         <v>51</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="10">
         <v>183947</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="9">
         <v>20328</v>
       </c>
-      <c r="E99" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" s="12">
+      <c r="E99" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="10">
         <v>276</v>
       </c>
-      <c r="G99" s="12" t="s">
+      <c r="G99" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="20">
-      <c r="A100" s="12">
+    <row r="100" spans="1:7">
+      <c r="A100" s="10">
         <v>96344</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="10">
         <v>20</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="10">
         <v>731677</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D100" s="9">
         <v>17600</v>
       </c>
-      <c r="E100" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="12">
+      <c r="E100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="10">
         <v>813</v>
       </c>
-      <c r="G100" s="12" t="s">
+      <c r="G100" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="20">
-      <c r="A101" s="12">
+    <row r="101" spans="1:7">
+      <c r="A101" s="10">
         <v>53062</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="10">
         <v>31</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="10">
         <v>907549</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D101" s="9">
         <v>19894</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="12">
+      <c r="E101" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="10">
         <v>680</v>
       </c>
-      <c r="G101" s="12" t="s">
+      <c r="G101" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5097,10 +5078,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="23"/>
-    <col min="2" max="2" width="20" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="10.83203125" style="20"/>
+    <col min="2" max="2" width="20" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="25">
@@ -5237,684 +5218,569 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M28"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="18"/>
-    <col min="8" max="8" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="18"/>
-    <col min="11" max="12" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="3.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="16"/>
+    <col min="8" max="8" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="16"/>
+    <col min="11" max="12" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="20">
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="18">
         <v>54858</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>237906</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>21222</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="E4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="18">
         <v>492</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>36</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="20">
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="18">
         <v>43161</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>967016</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>19140</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="E5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18">
         <v>215</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>20</v>
       </c>
-      <c r="I5" s="21">
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="18">
+        <v>40112</v>
+      </c>
+      <c r="C6" s="18">
+        <v>819010</v>
+      </c>
+      <c r="D6" s="17">
+        <v>14720</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="18">
+        <v>862</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="18">
+        <v>92495</v>
+      </c>
+      <c r="C7" s="18">
+        <v>633030</v>
+      </c>
+      <c r="D7" s="17">
+        <v>19010</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="18">
+        <v>803</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="18">
+        <v>78000</v>
+      </c>
+      <c r="C8" s="18">
+        <v>341877</v>
+      </c>
+      <c r="D8" s="17">
+        <v>22022</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="18">
+        <v>862</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="18">
+        <v>13154</v>
+      </c>
+      <c r="C9" s="18">
+        <v>720210</v>
+      </c>
+      <c r="D9" s="17">
+        <v>21409</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="18">
+        <v>492</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="18">
+        <v>36535</v>
+      </c>
+      <c r="C10" s="18">
+        <v>908558</v>
+      </c>
+      <c r="D10" s="17">
+        <v>19894</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="18">
+        <v>862</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="18">
+        <v>22813</v>
+      </c>
+      <c r="C11" s="18">
+        <v>705508</v>
+      </c>
+      <c r="D11" s="17">
+        <v>12960</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="18">
+        <v>225</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="18">
+        <v>56245</v>
+      </c>
+      <c r="C12" s="18">
+        <v>248621</v>
+      </c>
+      <c r="D12" s="17">
+        <v>25938</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="18">
+        <v>276</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="18">
+        <v>88118</v>
+      </c>
+      <c r="C13" s="18">
+        <v>341344</v>
+      </c>
+      <c r="D13" s="17">
+        <v>19844</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="18">
+        <v>492</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="18">
+        <v>84469</v>
+      </c>
+      <c r="C14" s="18">
+        <v>733566</v>
+      </c>
+      <c r="D14" s="17">
+        <v>21441</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="18">
+        <v>215</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="18">
+        <v>37412</v>
+      </c>
+      <c r="C15" s="18">
+        <v>750195</v>
+      </c>
+      <c r="D15" s="17">
+        <v>17462</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="18">
+        <v>276</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="18">
+        <v>68513</v>
+      </c>
+      <c r="C16" s="18">
+        <v>461723</v>
+      </c>
+      <c r="D16" s="17">
+        <v>17020</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="18">
+        <v>803</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="18">
+        <v>74380</v>
+      </c>
+      <c r="C17" s="18">
+        <v>468665</v>
+      </c>
+      <c r="D17" s="17">
+        <v>18040</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="18">
+        <v>215</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="19">
         <v>20</v>
       </c>
-      <c r="J5" s="20" t="s">
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="18">
+        <v>24047</v>
+      </c>
+      <c r="C18" s="18">
+        <v>556188</v>
+      </c>
+      <c r="D18" s="17">
+        <v>18671</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="18">
+        <v>862</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="H19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="H20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="H21" s="19">
+        <v>20</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="J21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="19">
+      <c r="K21" s="17">
         <v>22000</v>
       </c>
-      <c r="M5" s="19">
+      <c r="L21" s="17">
         <v>13200</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="20">
-        <v>40112</v>
-      </c>
-      <c r="C6" s="20">
-        <v>819010</v>
-      </c>
-      <c r="D6" s="19">
-        <v>14720</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="20">
-        <v>862</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="21">
+    <row r="22" spans="2:12">
+      <c r="H22" s="19">
         <v>46</v>
       </c>
-      <c r="I6" s="21">
-        <v>46</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="I22" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="J22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="19">
+      <c r="K22" s="17">
         <v>16000</v>
       </c>
-      <c r="M6" s="19">
+      <c r="L22" s="17">
         <v>9600</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="20">
-        <v>92495</v>
-      </c>
-      <c r="C7" s="20">
-        <v>633030</v>
-      </c>
-      <c r="D7" s="19">
-        <v>19010</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="20">
-        <v>803</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="21">
+    <row r="23" spans="2:12">
+      <c r="H23" s="19">
+        <v>51</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="17">
+        <v>24200</v>
+      </c>
+      <c r="L23" s="17">
+        <v>14520</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="H24" s="19">
+        <v>19</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="17">
+        <v>18190</v>
+      </c>
+      <c r="L24" s="17">
+        <v>10914</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="H25" s="19">
         <v>31</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="20">
-        <v>78000</v>
-      </c>
-      <c r="C8" s="20">
-        <v>341877</v>
-      </c>
-      <c r="D8" s="19">
-        <v>22022</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="20">
-        <v>862</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="21">
-        <v>51</v>
-      </c>
-      <c r="I8" s="21">
-        <v>51</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="I25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="17">
+        <v>22105</v>
+      </c>
+      <c r="L25" s="17">
+        <v>13263</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="H26" s="19">
+        <v>75</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="17">
+        <v>24895</v>
+      </c>
+      <c r="L26" s="17">
+        <v>14937</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="H27" s="19">
+        <v>22</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="17">
+        <v>22195</v>
+      </c>
+      <c r="L27" s="17">
+        <v>13317</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="H28" s="19">
+        <v>36</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="19">
-        <v>24200</v>
-      </c>
-      <c r="M8" s="19">
-        <v>14520</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="20">
-        <v>13154</v>
-      </c>
-      <c r="C9" s="20">
-        <v>720210</v>
-      </c>
-      <c r="D9" s="19">
-        <v>21409</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="20">
-        <v>492</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="21">
-        <v>75</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="20">
-        <v>36535</v>
-      </c>
-      <c r="C10" s="20">
-        <v>908558</v>
-      </c>
-      <c r="D10" s="19">
-        <v>19894</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="20">
-        <v>862</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="21">
-        <v>31</v>
-      </c>
-      <c r="I10" s="21">
-        <v>31</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="19">
-        <v>22105</v>
-      </c>
-      <c r="M10" s="19">
-        <v>13263</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="20">
-        <v>22813</v>
-      </c>
-      <c r="C11" s="20">
-        <v>705508</v>
-      </c>
-      <c r="D11" s="19">
-        <v>12960</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="20">
-        <v>225</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="21">
-        <v>46</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="20">
-        <v>56245</v>
-      </c>
-      <c r="C12" s="20">
-        <v>248621</v>
-      </c>
-      <c r="D12" s="19">
-        <v>25938</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="20">
-        <v>276</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="21">
-        <v>36</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="20">
-        <v>88118</v>
-      </c>
-      <c r="C13" s="20">
-        <v>341344</v>
-      </c>
-      <c r="D13" s="19">
-        <v>19844</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="20">
-        <v>492</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="21">
-        <v>51</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="20">
-        <v>84469</v>
-      </c>
-      <c r="C14" s="20">
-        <v>733566</v>
-      </c>
-      <c r="D14" s="19">
-        <v>21441</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="20">
-        <v>215</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="21">
-        <v>31</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="20">
-        <v>37412</v>
-      </c>
-      <c r="C15" s="20">
-        <v>750195</v>
-      </c>
-      <c r="D15" s="19">
-        <v>17462</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="20">
-        <v>276</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="21">
-        <v>31</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="20">
-        <v>68513</v>
-      </c>
-      <c r="C16" s="20">
-        <v>461723</v>
-      </c>
-      <c r="D16" s="19">
-        <v>17020</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="20">
-        <v>803</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="21">
-        <v>31</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="20">
-        <v>74380</v>
-      </c>
-      <c r="C17" s="20">
-        <v>468665</v>
-      </c>
-      <c r="D17" s="19">
-        <v>18040</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="20">
-        <v>215</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="21">
-        <v>20</v>
-      </c>
-      <c r="I17" s="21">
-        <v>20</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="19">
-        <v>22000</v>
-      </c>
-      <c r="M17" s="19">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="20">
-        <v>24047</v>
-      </c>
-      <c r="C18" s="20">
-        <v>556188</v>
-      </c>
-      <c r="D18" s="19">
-        <v>18671</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="20">
-        <v>862</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="21">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="H19" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="H20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="H21" s="21">
-        <v>20</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="19">
-        <v>22000</v>
-      </c>
-      <c r="L21" s="19">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="H22" s="21">
-        <v>46</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="19">
-        <v>16000</v>
-      </c>
-      <c r="L22" s="19">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="H23" s="21">
-        <v>51</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="19">
-        <v>24200</v>
-      </c>
-      <c r="L23" s="19">
-        <v>14520</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="H24" s="21">
-        <v>19</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="19">
-        <v>18190</v>
-      </c>
-      <c r="L24" s="19">
-        <v>10914</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="H25" s="21">
-        <v>31</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="19">
-        <v>22105</v>
-      </c>
-      <c r="L25" s="19">
-        <v>13263</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="H26" s="21">
-        <v>75</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="19">
-        <v>24895</v>
-      </c>
-      <c r="L26" s="19">
-        <v>14937</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="H27" s="21">
-        <v>22</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="19">
-        <v>22195</v>
-      </c>
-      <c r="L27" s="19">
-        <v>13317</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="H28" s="21">
-        <v>36</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="17">
         <v>26200</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="17">
         <v>15720</v>
       </c>
     </row>
@@ -5952,602 +5818,602 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="2:10" ht="18">
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>54858</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>36</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>237906</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>21222</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>492</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="18">
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>43161</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>20</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>967016</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>19140</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>215</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="18">
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>40112</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>46</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>819010</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>14720</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>862</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="18">
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>92495</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>31</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>633030</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>19010</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <v>803</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="2:10" ht="18">
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>78000</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>51</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>341877</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>22022</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>862</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" ht="18">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>13154</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>75</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>720210</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>21409</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>492</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" ht="18">
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>36535</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>31</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>908558</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>19894</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>862</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="2:10" ht="18">
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>22813</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>46</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>705508</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>12960</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>225</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="2:10" ht="18">
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>56245</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>36</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>248621</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>25938</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>276</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="2:10" ht="18">
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>88118</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>51</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>341344</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>19844</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>492</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" ht="18">
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>84469</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>31</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>733566</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>21441</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>215</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="18">
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>37412</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>31</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>750195</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>17462</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <v>276</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="2:10" ht="18">
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>68513</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>31</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>461723</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>17020</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="14">
         <v>803</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="2:10" ht="18">
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>74380</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>20</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>468665</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>18040</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="14">
         <v>215</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:10" ht="18">
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>24047</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>75</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>556188</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>18671</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="14">
         <v>862</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="2:10" ht="18">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="26" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="2:10" ht="18">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="16" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="18">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="16">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="14">
         <v>949</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="18">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="16">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="14">
         <v>215</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="18">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="16">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="14">
         <v>813</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="18">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="16">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="14">
         <v>680</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="18">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="16">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="14">
         <v>276</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="18">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="16">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="14">
         <v>803</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="18">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="16">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="14">
         <v>147</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="18">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="16">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="14">
         <v>862</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="18">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="16">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="14">
         <v>225</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="18">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="16">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="14">
         <v>492</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6580,15 +6446,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="4" t="s">
@@ -6960,13 +6826,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="2"/>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:9">
@@ -7123,11 +6989,11 @@
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="2:9">
       <c r="G30" s="8" t="s">
